--- a/TT/data/Export_Room_101.xlsx
+++ b/TT/data/Export_Room_101.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -35,7 +35,46 @@
     <t>Booked By</t>
   </si>
   <si>
-    <t>04-Aug-2025</t>
+    <t>06-Aug-2025</t>
+  </si>
+  <si>
+    <t>WEDNESDAY</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>456789123</t>
+  </si>
+  <si>
+    <t>สมหญิง เก่งมาก</t>
+  </si>
+  <si>
+    <t>09-Aug-2025</t>
+  </si>
+  <si>
+    <t>SATURDAY</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>สมชาย ใจดี</t>
+  </si>
+  <si>
+    <t>11-Aug-2025</t>
   </si>
   <si>
     <t>MONDAY</t>
@@ -47,54 +86,42 @@
     <t>11:00</t>
   </si>
   <si>
-    <t>Mathematics</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>สมชาย ใจดี</t>
-  </si>
-  <si>
-    <t>06-Aug-2025</t>
-  </si>
-  <si>
-    <t>WEDNESDAY</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>456789123</t>
-  </si>
-  <si>
-    <t>สมหญิง เก่งมาก</t>
-  </si>
-  <si>
-    <t>11-Aug-2025</t>
+    <t>12-Aug-2025</t>
+  </si>
+  <si>
+    <t>TUESDAY</t>
   </si>
   <si>
     <t>13-Aug-2025</t>
   </si>
   <si>
+    <t>16-Aug-2025</t>
+  </si>
+  <si>
     <t>18-Aug-2025</t>
   </si>
   <si>
+    <t>19-Aug-2025</t>
+  </si>
+  <si>
     <t>20-Aug-2025</t>
   </si>
   <si>
+    <t>23-Aug-2025</t>
+  </si>
+  <si>
     <t>25-Aug-2025</t>
   </si>
   <si>
+    <t>26-Aug-2025</t>
+  </si>
+  <si>
     <t>27-Aug-2025</t>
   </si>
   <si>
+    <t>30-Aug-2025</t>
+  </si>
+  <si>
     <t>03-Sep-2025</t>
   </si>
   <si>
@@ -120,18 +147,6 @@
   </si>
   <si>
     <t>29-Oct-2025</t>
-  </si>
-  <si>
-    <t>03-Nov-2025</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>01435556</t>
   </si>
   <si>
     <t>05-Nov-2025</t>
@@ -255,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -294,416 +309,416 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s" s="2">
+      <c r="B2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="G3" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>8</v>
-      </c>
       <c r="C4" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C7" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D7" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="F7" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="G7" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B8" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="F9" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="G9" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C11" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D11" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="F11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="G11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="G10" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s" s="0">
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D13" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="F13" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="G13" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C15" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D15" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="F15" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="G15" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s" s="2">
+      <c r="A19" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="B19" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -712,22 +727,22 @@
         <v>40</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -735,22 +750,22 @@
         <v>41</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -758,22 +773,22 @@
         <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -781,82 +796,197 @@
         <v>43</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>20</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="1">
-        <v>44</v>
+      <c r="A26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s" s="1">
+      <c r="A27" t="s" s="0">
         <v>47</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B28" t="n" s="0">
-        <v>22.0</v>
+      <c r="B28" t="s" s="0">
+        <v>8</v>
       </c>
       <c r="C28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
+    <row r="32">
+      <c r="A32" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="B29" t="n" s="0">
+      <c r="B32" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B34" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B30" t="n" s="0">
+      <c r="C34" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B35" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B31" t="n" s="0">
+      <c r="C35" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B36" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>51</v>
+      <c r="C36" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
